--- a/document/data source_課程資料/國中/skills_info/skill_info_數學3上.xlsx
+++ b/document/data source_課程資料/國中/skills_info/skill_info_數學3上.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\國中\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="這些是下半部分" sheetId="1" r:id="rId4"/>
+    <sheet name="這些是下半部分" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x:y:z 代表 x, y, z 三個數的連續比例。</t>
-  </si>
-  <si>
     <t>jh_ratio_chained_combine</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練將 x:y = a:b 和 y:z = b:c 合併為 x:y:z = a:b:c。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生利用「共同項 y」，將 y 的 b 值化為相同（最小公倍數），再合併連比。</t>
-  </si>
-  <si>
     <t>jh_ratio_chained_word_problem</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練應用 x:y:z = a:b:c ⇒ 設 x = ar, y = br, z = cr (r≠0) 求解應用問題。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生若 x:y:z = 2:3:5，應假設 x = 2r, y = 3r, z = 5r，再代入其他條件解出 r。</t>
-  </si>
-  <si>
     <t>jh_geo_parallel_lines_proportional_segments</t>
   </si>
   <si>
@@ -109,9 +108,6 @@
     <t>熟練應用平行線截比例線段性質 (L₁//L₂//L₃ ⇒ AB:BC = DE:EF)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「平行線截比例線段」性質，檢查對應線段是否正確。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_midsegment_theorem</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>熟練應用三角形兩邊中點連線 D, E，則 DE // BC 且 DE = ½ BC。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「中點連線」會「平行底邊、且長度為底邊的一半」。</t>
-  </si>
-  <si>
     <t>jh_geo_similarity_scaling_def</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
     <t>熟練相似多邊形的定義（對應角相等、對應邊成比例）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「相似」必須同時滿足 1. 對應角相等 2. 對應邊成比例。</t>
-  </si>
-  <si>
     <t>jh_geo_similarity_test_aa</t>
   </si>
   <si>
@@ -154,9 +144,6 @@
     <t>熟練應用 AA 相似性質判斷三角形是否相似。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生只要有「兩組」對應角相等，第三組角必相等，三角形即相似。</t>
-  </si>
-  <si>
     <t>jh_geo_similarity_test_sss</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>熟練應用 SSS 相似性質判斷三角形是否相似。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 SSS 相似：需「三組對應邊」皆「成比例」（例如 3:4:5 和 6:8:10）。</t>
-  </si>
-  <si>
     <t>jh_geo_similarity_test_sas</t>
   </si>
   <si>
@@ -184,9 +168,6 @@
     <t>熟練應用 SAS 相似性質判斷三角形是否相似。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 SAS 相似：需「兩組對應邊」成比例，且「夾角」必須相等。</t>
-  </si>
-  <si>
     <t>jh_geo_similarity_application_measurement</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練利用相似三角形（AA 相似）進行簡易測量（如測樹高、塔高）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生畫出兩個相似三角形（例如人與影、樹與影），並利用「對應邊成比例」列式求解。</t>
-  </si>
-  <si>
     <t>jh_geo_similarity_application_area_ratio</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練應用相似三角形的面積比 = (對應邊長)² 比。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若邊長比為 a:b，則面積比為 a²:b²。</t>
-  </si>
-  <si>
     <t>jh_circle_def_parts</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練辨識圓心、半徑、直徑、弦、弧、弓形、扇形。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「弦」是圓上兩點的連線，「弓形」是弦與弧所圍。</t>
-  </si>
-  <si>
     <t>jh_circle_point_relation</t>
   </si>
   <si>
@@ -244,9 +216,6 @@
     <t>熟練利用「點到圓心距離 (d)」與「半徑 (r)」判斷點在圓內 (d&lt;r)、圓上 (d=r) 或圓外 (d&gt;r)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生計算「點 P 到圓心 O 的距離 d」，並與「半徑 r」比較。</t>
-  </si>
-  <si>
     <t>jh_circle_line_relation</t>
   </si>
   <si>
@@ -259,9 +228,6 @@
     <t>熟練利用「圓心到直線距離 (d)」與「半徑 (r)」判斷直線與圓的關係（相交兩點 d&lt;r, 相切 d=r, 不相交 d&gt;r）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生計算「圓心 O 到直線 L 的距離 d」，並與「半徑 r」比較。</t>
-  </si>
-  <si>
     <t>jh_circle_tangent_property</t>
   </si>
   <si>
@@ -274,9 +240,6 @@
     <t>熟練應用「切線 ⊥ 過切點的半徑」的性質。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「切點」與「圓心」的連線（半徑）必定「垂直」於該切線（=90°）。</t>
-  </si>
-  <si>
     <t>jh_circle_chord_property</t>
   </si>
   <si>
@@ -289,9 +252,6 @@
     <t>熟練應用弦心距（圓心到弦的距離）「垂直且平分」此弦的性質。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「弦心距」必定「垂直平分」弦。可利用「畢氏定理」求解半徑、弦心距、半弦長。</t>
-  </si>
-  <si>
     <t>jh_circle_equal_chords_property</t>
   </si>
   <si>
@@ -304,9 +264,6 @@
     <t>熟練應用「等弦對等弦心距」且「等弦心距對等弦」的性質。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生在同一個圓中，「弦越長，弦心距越短」。若弦等長，則弦心距必等長。</t>
-  </si>
-  <si>
     <t>jh_circle_central_angle_arc</t>
   </si>
   <si>
@@ -319,9 +276,6 @@
     <t>熟練應用「圓心角度數 = 對應弧度數」，並能計算扇形弧長與面積。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「圓心角」幾度，「對應的弧」就是幾度。弧長 = (θ/360)×2πr。</t>
-  </si>
-  <si>
     <t>jh_circle_inscribed_angle_arc</t>
   </si>
   <si>
@@ -334,9 +288,6 @@
     <t>熟練應用「圓周角度數 = ½ × 對應弧度數」。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「圓周角」的度數是「圓心角」的一半（= ½ × 對應弧度數）。</t>
-  </si>
-  <si>
     <t>jh_circle_inscribed_angle_diameter</t>
   </si>
   <si>
@@ -349,9 +300,6 @@
     <t>熟練應用「半圓」或「直徑」所對的圓周角恆為 90°。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生只要看到「直徑」是三角形的一邊，則直徑所對的「圓周角」必為 90°。</t>
-  </si>
-  <si>
     <t>jh_circle_inscribed_quadrilateral</t>
   </si>
   <si>
@@ -364,9 +312,6 @@
     <t>熟練應用圓內接四邊形的「對角互補」（對角相加 = 180°）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「圓內接四邊形」的「對角」相加必定是 180°。</t>
-  </si>
-  <si>
     <t>jh_circle_tangent_chord_angle</t>
   </si>
   <si>
@@ -379,9 +324,6 @@
     <t>熟練應用「弦切角度數 = ½ × 夾弧度數」。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「弦切角」（切線與弦的夾角）的度數，等於它所夾的「弧」的度數的「一半」。</t>
-  </si>
-  <si>
     <t>jh_circle_interior_angle</t>
   </si>
   <si>
@@ -394,9 +336,6 @@
     <t>熟練應用圓內角（兩弦交角）= ½ × (兩對應弧度數之和)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「圓內角」（兩弦交角）= (前面弧 + 後面弧) / 2。</t>
-  </si>
-  <si>
     <t>jh_circle_exterior_angle</t>
   </si>
   <si>
@@ -409,9 +348,6 @@
     <t>熟練應用圓外角（兩割線或兩切線交角）= ½ × (兩對應弧度數之差)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「圓外角」= (大弧 - 小弧) / 2。</t>
-  </si>
-  <si>
     <t>jh_algebra_proof_odd_even</t>
   </si>
   <si>
@@ -424,9 +360,6 @@
     <t>熟練使用 2n (偶數) 或 2n+1 (奇數) 進行代數推理證明。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生假設 奇數 = 2n+1, 偶數 = 2m，再進行加總或相乘，判斷結果。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_circumcenter_def_property</t>
   </si>
   <si>
@@ -439,9 +372,6 @@
     <t>熟練外心的定義（三邊「中垂線」交點）與性質（到三頂點等距 = 外接圓半徑）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「外心 (O)」是「三邊中垂線」的交點，性質是「OA = OB = OC = R」(到三頂點等距)。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_circumcenter_location</t>
   </si>
   <si>
@@ -454,9 +384,6 @@
     <t>熟練判斷外心在三角形的內部（銳角）、外部（鈍角）或斜邊中點（直角）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「直角三角形」的外心在「斜邊中點」；「鈍角三角形」的外心在「三角形外部」。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_incenter_def_property</t>
   </si>
   <si>
@@ -469,9 +396,6 @@
     <t>熟練內心的定義（三「角平分線」交點）與性質（到三邊等距 = 內切圓半徑）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「內心 (I)」是「三角平分線」的交點，性質是「到三邊等距離 = r」(內切圓半徑)。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_incenter_area</t>
   </si>
   <si>
@@ -484,9 +408,6 @@
     <t>熟練應用三角形面積 A = ½ * s * r（s 為半周長, r 為內切圓半徑）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 A = ½ (a+b+c)r = s·r (面積 = 半周長 × 內切圓半徑)。</t>
-  </si>
-  <si>
     <t>jh_geo_triangle_centroid_def_property</t>
   </si>
   <si>
@@ -499,23 +420,299 @@
     <t>熟練重心的定義（三「中線」交點）與性質（重心將中線分為 2:1）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「重心 (G)」是「三中線」的交點，性質是 AG:GD = 2:1 (頂點到重心 : 重心到中點)。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x:y:z 代表 x, y, z 三個數的連續比例。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生利用「共同項 y」，將 y 的 b 值化為相同（最小公倍數），再合併連比。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生若 x:y:z = 2:3:5，應假設 x = 2r, y = 3r, z = 5r，再代入其他條件解出 r。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「平行線截比例線段」性質，檢查對應線段是否正確。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「中點連線」會「平行底邊、且長度為底邊的一半」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「相似」必須同時滿足 1. 對應角相等 2. 對應邊成比例。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生只要有「兩組」對應角相等，第三組角必相等，三角形即相似。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 SSS 相似：需「三組對應邊」皆「成比例」（例如 3:4:5 和 6:8:10）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 SAS 相似：需「兩組對應邊」成比例，且「夾角」必須相等。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生畫出兩個相似三角形（例如人與影、樹與影），並利用「對應邊成比例」列式求解。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若邊長比為 a:b，則面積比為 a²:b²。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「弦」是圓上兩點的連線，「弓形」是弦與弧所圍。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生計算「點 P 到圓心 O 的距離 d」，並與「半徑 r」比較。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生計算「圓心 O 到直線 L 的距離 d」，並與「半徑 r」比較。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「切點」與「圓心」的連線（半徑）必定「垂直」於該切線（=90°）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「弦心距」必定「垂直平分」弦。可利用「畢氏定理」求解半徑、弦心距、半弦長。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生在同一個圓中，「弦越長，弦心距越短」。若弦等長，則弦心距必等長。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「圓心角」幾度，「對應的弧」就是幾度。弧長 = (θ/360)×2πr。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「圓周角」的度數是「圓心角」的一半（= ½ × 對應弧度數）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生只要看到「直徑」是三角形的一邊，則直徑所對的「圓周角」必為 90°。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「圓內接四邊形」的「對角」相加必定是 180°。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「弦切角」（切線與弦的夾角）的度數，等於它所夾的「弧」的度數的「一半」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「圓內角」（兩弦交角）= (前面弧 + 後面弧) / 2。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「圓外角」= (大弧 - 小弧) / 2。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生假設 奇數 = 2n+1, 偶數 = 2m，再進行加總或相乘，判斷結果。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「外心 (O)」是「三邊中垂線」的交點，性質是「OA = OB = OC = R」(到三頂點等距)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「直角三角形」的外心在「斜邊中點」；「鈍角三角形」的外心在「三角形外部」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「內心 (I)」是「三角平分線」的交點，性質是「到三邊等距離 = r」(內切圓半徑)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 A = ½ (a+b+c)r = s·r (面積 = 半周長 × 內切圓半徑)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「重心 (G)」是「三中線」的交點，性質是 AG:GD = 2:1 (頂點到重心 : 重心到中點)。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,36 +721,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -743,20 +947,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -808,929 +1017,929 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5580.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5590.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5600.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5610.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5620.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5630.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5640.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5650.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5660.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5670.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5680.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5690.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5700.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5710.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5720.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>5730.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5740.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5750.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>5760.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>5770.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>5780.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5790.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>5800.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>5810.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5820.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>5830.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>5840.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>5850.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>5860.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1739,16 +1948,17 @@
         <v>162</v>
       </c>
       <c r="H31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>5870.0</v>
+        <v>5870</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>